--- a/src/test/resources/urunListesi.xlsx
+++ b/src/test/resources/urunListesi.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>urun ismi</t>
   </si>
@@ -96,6 +96,60 @@
   </si>
   <si>
     <t>_250121_103009</t>
+  </si>
+  <si>
+    <t>_250122_080829</t>
+  </si>
+  <si>
+    <t>_250122_080831</t>
+  </si>
+  <si>
+    <t>_250122_080833</t>
+  </si>
+  <si>
+    <t>_250122_080834</t>
+  </si>
+  <si>
+    <t>_250122_080836</t>
+  </si>
+  <si>
+    <t>_250122_080838</t>
+  </si>
+  <si>
+    <t>_250122_080840</t>
+  </si>
+  <si>
+    <t>_250122_080841</t>
+  </si>
+  <si>
+    <t>_250122_080843</t>
+  </si>
+  <si>
+    <t>_250122_081106</t>
+  </si>
+  <si>
+    <t>_250122_081109</t>
+  </si>
+  <si>
+    <t>_250122_081110</t>
+  </si>
+  <si>
+    <t>_250122_081112</t>
+  </si>
+  <si>
+    <t>_250122_081114</t>
+  </si>
+  <si>
+    <t>_250122_081116</t>
+  </si>
+  <si>
+    <t>_250122_081118</t>
+  </si>
+  <si>
+    <t>_250122_081119</t>
+  </si>
+  <si>
+    <t>_250122_081121</t>
   </si>
 </sst>
 </file>
@@ -499,7 +553,7 @@
         <v>4.0</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -513,7 +567,7 @@
         <v>10.0</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -527,7 +581,7 @@
         <v>0.0</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -541,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -555,7 +609,7 @@
         <v>3.0</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -569,7 +623,7 @@
         <v>3.0</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -583,7 +637,7 @@
         <v>0.0</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
@@ -597,7 +651,7 @@
         <v>4.0</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
@@ -611,7 +665,7 @@
         <v>0.0</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/urunListesi.xlsx
+++ b/src/test/resources/urunListesi.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>urun ismi</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>_250122_081121</t>
+  </si>
+  <si>
+    <t>23/01/2025</t>
   </si>
 </sst>
 </file>
@@ -522,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F45082-77CB-8547-A6D1-3DC7353AE3BC}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F11" sqref="D2:F11"/>
@@ -555,6 +558,12 @@
       <c r="E2" t="s" s="0">
         <v>29</v>
       </c>
+      <c r="F2" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>38</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s" s="0">
@@ -569,6 +578,12 @@
       <c r="E3" t="s" s="0">
         <v>30</v>
       </c>
+      <c r="F3" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s" s="0">
@@ -583,6 +598,12 @@
       <c r="E4" t="s" s="0">
         <v>31</v>
       </c>
+      <c r="F4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s" s="0">
@@ -597,6 +618,12 @@
       <c r="E5" t="s" s="0">
         <v>32</v>
       </c>
+      <c r="F5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s" s="0">
@@ -611,6 +638,12 @@
       <c r="E6" t="s" s="0">
         <v>33</v>
       </c>
+      <c r="F6" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s" s="0">
@@ -625,6 +658,12 @@
       <c r="E7" t="s" s="0">
         <v>34</v>
       </c>
+      <c r="F7" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s" s="0">
@@ -639,6 +678,12 @@
       <c r="E8" t="s" s="0">
         <v>35</v>
       </c>
+      <c r="F8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s" s="0">
@@ -653,6 +698,12 @@
       <c r="E9" t="s" s="0">
         <v>36</v>
       </c>
+      <c r="F9" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s" s="0">
@@ -666,6 +717,12 @@
       </c>
       <c r="E10" t="s" s="0">
         <v>37</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
